--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>538836.425446809</v>
+        <v>599671.9003585092</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554241</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099521</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
@@ -667,7 +667,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>158.232372305077</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="6">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>98.47382483861917</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>62.41626770229251</v>
       </c>
       <c r="H8" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
     </row>
     <row r="9">
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488295</v>
       </c>
     </row>
     <row r="10">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>22.34289815645522</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>98.63122914173753</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -1426,19 +1426,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883158</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>162.3364906735233</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>265.1806127579634</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>143.4822953483834</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>59.03226091544951</v>
+        <v>32.97544786985848</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>16.915442650592</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.97699675700453</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>107.0390583653865</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>244.7200466727678</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>22.11041309544134</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>79.64988525740962</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>109.4741142561156</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>174.8813118982896</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>105.015905348654</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>109.7468199786924</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>13.69284868328463</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>304.0710731174375</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>116.1430940756183</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>234.7283054736621</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>163.6613350144296</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>297.9926176201583</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>84.84244993117463</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>109.4741142561156</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3325,16 +3325,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>177.5391940856295</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.675685265885</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>118.1348319079171</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3562,13 +3562,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>60.31944932562589</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>9.693200015577881</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>260.7068467983131</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>109.4741142561155</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.03250833502995</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>47.40419526769224</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>158.4535690817021</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>68.43141783824916</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.466470981599</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C2" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="4">
@@ -4594,22 +4594,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
         <v>506.1786963984129</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>227.7955745279523</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4749,16 +4749,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>325.7766548071336</v>
       </c>
       <c r="C8" t="n">
-        <v>72.23626279480629</v>
+        <v>325.7766548071336</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>325.7766548071336</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>325.7766548071336</v>
       </c>
       <c r="F8" t="n">
-        <v>72.23626279480629</v>
+        <v>82.32787816303346</v>
       </c>
       <c r="G8" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211355</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057941</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686983</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759377</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185857</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953339</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953339</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953339</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953339</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>812.6742080953339</v>
       </c>
       <c r="W8" t="n">
-        <v>315.6850394389064</v>
+        <v>812.6742080953339</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>812.6742080953339</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>569.2254314512338</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>486.8488635328715</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>725.4530095217541</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="U9" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470258</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152831</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711829</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216565006</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>46.59526811792571</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>85.78330631014789</v>
       </c>
       <c r="N10" t="n">
         <v>129.4741569655842</v>
@@ -4992,22 +4992,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1309.714918859356</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C11" t="n">
-        <v>1309.714918859356</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.714918859356</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E11" t="n">
-        <v>1309.714918859356</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>898.729014069748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>480.7652059679349</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>153.5704860039377</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224076</v>
@@ -5053,16 +5053,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
@@ -5071,22 +5071,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X11" t="n">
-        <v>1309.714918859356</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y11" t="n">
-        <v>1309.714918859356</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5138,25 +5138,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1394.624369323446</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C14" t="n">
-        <v>1394.624369323446</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D14" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W14" t="n">
-        <v>1394.624369323446</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X14" t="n">
-        <v>1394.624369323446</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y14" t="n">
-        <v>1394.624369323446</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5472,16 +5472,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>473.4444960005474</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W16" t="n">
-        <v>184.0273259635867</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1268.680947310029</v>
+        <v>2058.606050724286</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.680947310029</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.680947310029</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117851</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5548,19 +5548,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2418.885877611043</v>
+        <v>2445.205890788408</v>
       </c>
       <c r="V17" t="n">
-        <v>2418.885877611043</v>
+        <v>2445.205890788408</v>
       </c>
       <c r="W17" t="n">
-        <v>2418.885877611043</v>
+        <v>2445.205890788408</v>
       </c>
       <c r="X17" t="n">
-        <v>2045.420119349963</v>
+        <v>2445.205890788408</v>
       </c>
       <c r="Y17" t="n">
-        <v>1655.280787374151</v>
+        <v>2445.205890788408</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.65727031047</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C19" t="n">
-        <v>509.7210873825632</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D19" t="n">
-        <v>359.6044479702274</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E19" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5712,13 +5712,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y19" t="n">
-        <v>678.65727031047</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>882.8926947117852</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117852</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>1112.303376188265</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>726.5151235900203</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>315.5292188004127</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>1893.689751284806</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W20" t="n">
-        <v>1646.497784948677</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X20" t="n">
-        <v>1273.032026687597</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y20" t="n">
-        <v>882.8926947117852</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5934,16 +5934,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>365.6939024587809</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
         <v>343.360151857325</v>
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1309.714918859356</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C23" t="n">
-        <v>940.7524019189439</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D23" t="n">
-        <v>582.4867033121934</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
         <v>471.9067899221776</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X23" t="n">
-        <v>1309.714918859356</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y23" t="n">
-        <v>1309.714918859356</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4811944101821</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1380.123535465744</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C26" t="n">
-        <v>1011.161018525332</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D26" t="n">
-        <v>1011.161018525332</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E26" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6256,22 +6256,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1881.118241157406</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1770.262867441555</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y26" t="n">
-        <v>1380.123535465744</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6326,7 +6326,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1640.777806202926</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="C29" t="n">
-        <v>1626.94664591678</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>1993.54646147304</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>1640.777806202926</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X29" t="n">
-        <v>1640.777806202926</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y29" t="n">
-        <v>1640.777806202926</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="30">
@@ -6557,28 +6557,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>201.8560754027576</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="C31" t="n">
-        <v>201.8560754027576</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="D31" t="n">
-        <v>201.8560754027576</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>171.2592384624031</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>171.2592384624031</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>171.2592384624031</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W31" t="n">
-        <v>201.8560754027576</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X31" t="n">
-        <v>201.8560754027576</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y31" t="n">
-        <v>201.8560754027576</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1184.889762484419</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C32" t="n">
-        <v>1184.889762484419</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.889762484419</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6706,13 +6706,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.661061815299</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W32" t="n">
-        <v>1485.892406545185</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X32" t="n">
-        <v>1184.889762484419</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="Y32" t="n">
-        <v>1184.889762484419</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
         <v>713.8062203571349</v>
@@ -6806,16 +6806,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U33" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207637</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>139.6424261952883</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>286.5323736931987</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>286.5323736931987</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5323736931987</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X34" t="n">
-        <v>286.5323736931987</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y34" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1309.714918859356</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>940.7524019189439</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>582.4867033121934</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X35" t="n">
-        <v>1309.714918859356</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>1309.714918859356</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7031,10 +7031,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>667.7988452409105</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C37" t="n">
-        <v>498.8626623130036</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7119,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U37" t="n">
-        <v>667.7988452409105</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V37" t="n">
-        <v>667.7988452409105</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W37" t="n">
-        <v>667.7988452409105</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X37" t="n">
-        <v>667.7988452409105</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y37" t="n">
-        <v>667.7988452409105</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1662.48357412947</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="C38" t="n">
-        <v>1662.48357412947</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D38" t="n">
-        <v>1304.217875522719</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E38" t="n">
-        <v>918.4296229244749</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W38" t="n">
-        <v>1662.48357412947</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X38" t="n">
-        <v>1662.48357412947</v>
+        <v>1756.026557196204</v>
       </c>
       <c r="Y38" t="n">
-        <v>1662.48357412947</v>
+        <v>1756.026557196204</v>
       </c>
     </row>
     <row r="39">
@@ -7235,10 +7235,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961342</v>
@@ -7247,7 +7247,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7259,10 +7259,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.7988452409105</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C40" t="n">
-        <v>498.8626623130036</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>667.7988452409105</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>667.7988452409105</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V40" t="n">
-        <v>667.7988452409105</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W40" t="n">
-        <v>667.7988452409105</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X40" t="n">
-        <v>667.7988452409105</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.7988452409105</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>644.477951075587</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C41" t="n">
-        <v>644.477951075587</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D41" t="n">
-        <v>644.477951075587</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E41" t="n">
-        <v>644.477951075587</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F41" t="n">
-        <v>644.477951075587</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2147.451536646714</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>1794.6828813766</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>1421.217123115521</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y41" t="n">
-        <v>1031.077791139709</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="42">
@@ -7514,10 +7514,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
         <v>2289.884200196743</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>686.6820060902423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1309.714918859356</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>940.7524019189439</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D44" t="n">
-        <v>582.4867033121934</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2283.333195472776</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>1930.564540202662</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.714918859356</v>
+        <v>1557.098781941583</v>
       </c>
       <c r="Y44" t="n">
-        <v>1309.714918859356</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7733,37 +7733,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.7689125078493</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C46" t="n">
         <v>369.8327295799424</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y46" t="n">
-        <v>538.7689125078493</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5148970497678</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5148970497678</v>
+        <v>382.1386950879877</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>372.3560009609924</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221036</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
@@ -22555,7 +22555,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,7 +22603,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,13 +22628,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>14.47612668323879</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="6">
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>153.2211583223004</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858214</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640523</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>352.8864698128426</v>
       </c>
       <c r="H8" t="n">
-        <v>287.0492336280195</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23080,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783944</v>
       </c>
     </row>
     <row r="9">
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326044</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>175.8836868124214</v>
       </c>
     </row>
     <row r="10">
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>360.3909435070253</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>53.30008710312372</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>4.973311585527568</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23472,10 +23472,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>84.06035595944962</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>242.7556433076702</v>
       </c>
     </row>
     <row r="15">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23712,13 +23712,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>163.0715099677104</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>192.1919065928398</v>
+        <v>218.2487196384308</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23892,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.5185199959772</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.6076565950902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>306.7451116554085</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>104.5209220446452</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>230.0272302283867</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>303.083956406071</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>272.4562558161462</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24420,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>43.70334145380519</v>
       </c>
     </row>
     <row r="26">
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>260.2569864223535</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>259.9842806997767</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,10 +24657,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>17.49548950841407</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>351.5800430877229</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>77.85929695482423</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,13 +24855,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>40.02779476617687</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24891,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>51.79469286292888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>219.072506649051</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>71.73848305831075</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25086,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>82.46735232787628</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>63.1320406209006</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>272.4562558161462</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>150.2130643845054</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>226.5550366661093</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>152.847313070706</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>288.7412138337943</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>309.4116513528431</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>138.9222730026345</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>152.4187013741504</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>153.0773232224819</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>276.7638243999381</v>
       </c>
     </row>
     <row r="42">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.7994718469074</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>334.5261748045696</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,10 +25882,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>169.2986893884328</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>183.7062254855788</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.11818237049579</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495131</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495131</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="14">
@@ -26319,10 +26319,10 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126062</v>
@@ -26346,16 +26346,16 @@
         <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.174042996</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26475,10 +26475,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376168</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33622.44110290322</v>
+        <v>-22626.23154486678</v>
       </c>
       <c r="C6" t="n">
-        <v>47146.99042864454</v>
+        <v>58143.1999866809</v>
       </c>
       <c r="D6" t="n">
-        <v>47146.99042864454</v>
+        <v>58143.19998668101</v>
       </c>
       <c r="E6" t="n">
-        <v>-283910.8149445836</v>
+        <v>-278449.2425733463</v>
       </c>
       <c r="F6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="G6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="H6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="I6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="J6" t="n">
-        <v>85875.41649930619</v>
+        <v>91336.98887054349</v>
       </c>
       <c r="K6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="L6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="M6" t="n">
-        <v>40961.99842435426</v>
+        <v>46423.57079559158</v>
       </c>
       <c r="N6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="O6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="P6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696498</v>
       </c>
     </row>
   </sheetData>
@@ -26795,16 +26795,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26819,7 +26819,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34792,7 +34792,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>113.3808631277495</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>113.3808631277495</v>
+        <v>240.0046611659693</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35740,7 +35740,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>220.205405775187</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K23" t="n">
         <v>297.2230414343419</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,13 +36609,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37873,7 +37873,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
